--- a/generalWithHDITier.xlsx
+++ b/generalWithHDITier.xlsx
@@ -1502,9 +1502,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="d.m"/>
-    <numFmt numFmtId="165" formatCode="dd.mm"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="d.m"/>
+    <numFmt numFmtId="166" formatCode="dd.mm"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1540,13 +1541,13 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1851,12 +1852,11 @@
         <v>17</v>
       </c>
       <c r="N2" s="3">
-        <v>0.04391</v>
+        <v>4.391</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
@@ -1898,13 +1898,12 @@
       <c r="M3" s="1">
         <v>1.1</v>
       </c>
-      <c r="N3" s="2">
-        <v>0.01851</v>
+      <c r="N3" s="5">
+        <v>1.851</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1">
@@ -1943,13 +1942,12 @@
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
-      <c r="N4" s="2">
-        <v>0.02561</v>
+      <c r="N4" s="5">
+        <v>2.561</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1">
@@ -1983,12 +1981,11 @@
         <v>29</v>
       </c>
       <c r="N5" s="3">
-        <v>0.00884</v>
+        <v>0.8840000000000001</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1">
@@ -2027,13 +2024,12 @@
       <c r="L6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="2">
-        <v>0.02369</v>
+      <c r="N6" s="5">
+        <v>2.3689999999999998</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
@@ -2069,13 +2065,12 @@
       <c r="L7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="2">
-        <v>0.03294</v>
+      <c r="N7" s="5">
+        <v>3.2939999999999996</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="2"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1">
@@ -2117,13 +2112,12 @@
       <c r="M8" s="1">
         <v>0.6</v>
       </c>
-      <c r="N8" s="2">
-        <v>0.02138</v>
+      <c r="N8" s="5">
+        <v>2.138</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" s="2"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1">
@@ -2162,13 +2156,12 @@
       <c r="M9" s="1">
         <v>1.8</v>
       </c>
-      <c r="N9" s="2">
-        <v>0.02008</v>
+      <c r="N9" s="5">
+        <v>2.008</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1">
@@ -2210,13 +2203,12 @@
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
-      <c r="N10" s="2">
-        <v>0.02849</v>
+      <c r="N10" s="5">
+        <v>2.849</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="2"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1">
@@ -2258,13 +2250,12 @@
       <c r="M11" s="1">
         <v>0.7</v>
       </c>
-      <c r="N11" s="2">
-        <v>0.01641</v>
+      <c r="N11" s="5">
+        <v>1.641</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1">
@@ -2303,13 +2294,12 @@
       <c r="L12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N12" s="2">
-        <v>0.01475</v>
+      <c r="N12" s="5">
+        <v>1.4749999999999999</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1">
@@ -2348,13 +2338,12 @@
       <c r="L13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N13" s="2">
-        <v>0.02012</v>
+      <c r="N13" s="5">
+        <v>2.012</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1">
@@ -2393,13 +2382,12 @@
       <c r="L14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N14" s="2">
-        <v>0.00515</v>
+      <c r="N14" s="5">
+        <v>0.515</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q14" s="2"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1">
@@ -2441,13 +2429,12 @@
       <c r="M15" s="1">
         <v>14.8</v>
       </c>
-      <c r="N15" s="2">
-        <v>0.01622</v>
+      <c r="N15" s="5">
+        <v>1.6219999999999999</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1">
@@ -2486,13 +2473,12 @@
       <c r="L16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="2">
-        <v>0.01124</v>
+      <c r="N16" s="5">
+        <v>1.124</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1">
@@ -2531,13 +2517,12 @@
       <c r="L17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N17" s="2">
-        <v>0.00766</v>
+      <c r="N17" s="5">
+        <v>0.766</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1">
@@ -2579,13 +2564,12 @@
       <c r="M18" s="1">
         <v>0.2</v>
       </c>
-      <c r="N18" s="2">
-        <v>0.02277</v>
+      <c r="N18" s="5">
+        <v>2.2769999999999997</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1">
@@ -2624,13 +2608,12 @@
       <c r="L19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N19" s="2">
-        <v>0.02411</v>
+      <c r="N19" s="5">
+        <v>2.411</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1">
@@ -2672,13 +2655,12 @@
       <c r="M20" s="1">
         <v>49.6</v>
       </c>
-      <c r="N20" s="2">
-        <v>0.01298</v>
+      <c r="N20" s="5">
+        <v>1.298</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1">
@@ -2720,13 +2702,12 @@
       <c r="M21" s="1">
         <v>1.5</v>
       </c>
-      <c r="N21" s="2">
-        <v>8.2E-4</v>
+      <c r="N21" s="5">
+        <v>0.082</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1">
@@ -2768,13 +2749,12 @@
       <c r="M22" s="1">
         <v>7.1</v>
       </c>
-      <c r="N22" s="2">
-        <v>0.03773</v>
+      <c r="N22" s="5">
+        <v>3.773</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1">
@@ -2816,13 +2796,12 @@
       <c r="M23" s="1">
         <v>0.2</v>
       </c>
-      <c r="N23" s="2">
-        <v>0.04709</v>
+      <c r="N23" s="5">
+        <v>4.709</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1">
@@ -2861,13 +2840,12 @@
       <c r="L24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N24" s="2">
-        <v>0.01445</v>
+      <c r="N24" s="5">
+        <v>1.4449999999999998</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1">
@@ -2909,13 +2887,12 @@
       <c r="M25" s="1">
         <v>3.4</v>
       </c>
-      <c r="N25" s="2">
-        <v>0.02799</v>
+      <c r="N25" s="5">
+        <v>2.799</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1">
@@ -2954,13 +2931,12 @@
       <c r="L26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="N26" s="2">
-        <v>0.44348</v>
+      <c r="N26" s="5">
+        <v>44.348</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1">
@@ -3002,13 +2978,12 @@
       <c r="M27" s="1">
         <v>1.5</v>
       </c>
-      <c r="N27" s="2">
-        <v>0.04296</v>
+      <c r="N27" s="5">
+        <v>4.295999999999999</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1">
@@ -3050,13 +3025,12 @@
       <c r="M28" s="1">
         <v>43.7</v>
       </c>
-      <c r="N28" s="2">
-        <v>0.01249</v>
+      <c r="N28" s="5">
+        <v>1.2489999999999999</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1">
@@ -3095,13 +3069,12 @@
       <c r="M29" s="1">
         <v>71.7</v>
       </c>
-      <c r="N29" s="2">
-        <v>0.00136</v>
+      <c r="N29" s="5">
+        <v>0.136</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1">
@@ -3140,13 +3113,12 @@
       <c r="L30" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N30" s="2">
-        <v>1.66E-5</v>
+      <c r="N30" s="5">
+        <v>0.00166</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q30" s="2"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1">
@@ -3188,13 +3160,12 @@
       <c r="M31" s="1">
         <v>23.8</v>
       </c>
-      <c r="N31" s="2">
-        <v>0.01633</v>
+      <c r="N31" s="5">
+        <v>1.633</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q31" s="2"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1">
@@ -3236,13 +3207,12 @@
       <c r="M32" s="1">
         <v>0.5</v>
       </c>
-      <c r="N32" s="2">
-        <v>0.01849</v>
+      <c r="N32" s="5">
+        <v>1.849</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1">
@@ -3281,13 +3251,12 @@
       <c r="L33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N33" s="2">
-        <v>0.00885</v>
+      <c r="N33" s="5">
+        <v>0.885</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q33" s="2"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1">
@@ -3323,13 +3292,12 @@
       <c r="L34" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N34" s="2">
-        <v>0.01372</v>
+      <c r="N34" s="5">
+        <v>1.3719999999999999</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q34" s="2"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1">
@@ -3371,13 +3339,12 @@
       <c r="M35" s="1">
         <v>38.4</v>
       </c>
-      <c r="N35" s="2">
-        <v>0.03505</v>
+      <c r="N35" s="5">
+        <v>3.505</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1">
@@ -3419,13 +3386,12 @@
       <c r="M36" s="1">
         <v>1.3</v>
       </c>
-      <c r="N36" s="2">
-        <v>0.02157</v>
+      <c r="N36" s="5">
+        <v>2.157</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q36" s="2"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1">
@@ -3467,13 +3433,12 @@
       <c r="M37" s="1">
         <v>0.7</v>
       </c>
-      <c r="N37" s="2">
-        <v>0.05017</v>
+      <c r="N37" s="5">
+        <v>5.017</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q37" s="2"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1">
@@ -3515,13 +3480,12 @@
       <c r="M38" s="1">
         <v>4.5</v>
       </c>
-      <c r="N38" s="2">
-        <v>0.02508</v>
+      <c r="N38" s="5">
+        <v>2.508</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q38" s="2"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1">
@@ -3560,13 +3524,12 @@
       <c r="M39" s="1">
         <v>18.1</v>
       </c>
-      <c r="N39" s="2">
-        <v>0.03665</v>
+      <c r="N39" s="5">
+        <v>3.665</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q39" s="2"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1">
@@ -3605,13 +3568,12 @@
       <c r="M40" s="1">
         <v>37.0</v>
       </c>
-      <c r="N40" s="2">
-        <v>0.01339</v>
+      <c r="N40" s="5">
+        <v>1.3390000000000002</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q40" s="2"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1">
@@ -3653,13 +3615,12 @@
       <c r="M41" s="1">
         <v>1.3</v>
       </c>
-      <c r="N41" s="2">
-        <v>0.01249</v>
+      <c r="N41" s="5">
+        <v>1.2489999999999999</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q41" s="2"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1">
@@ -3689,7 +3650,7 @@
       <c r="J42" s="1">
         <v>18.7</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="6">
         <v>3601.006</v>
       </c>
       <c r="L42" s="1" t="s">
@@ -3698,13 +3659,12 @@
       <c r="M42" s="1">
         <v>28.2</v>
       </c>
-      <c r="N42" s="2">
-        <v>0.00654</v>
+      <c r="N42" s="5">
+        <v>0.654</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q42" s="2"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1">
@@ -3746,13 +3706,12 @@
       <c r="M43" s="1">
         <v>0.7</v>
       </c>
-      <c r="N43" s="2">
-        <v>0.02279</v>
+      <c r="N43" s="5">
+        <v>2.279</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q43" s="2"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1">
@@ -3788,13 +3747,12 @@
       <c r="L44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N44" s="2">
-        <v>0.00682</v>
+      <c r="N44" s="5">
+        <v>0.6819999999999999</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q44" s="2"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1">
@@ -3833,13 +3791,12 @@
       <c r="L45" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N45" s="2">
-        <v>0.00423</v>
+      <c r="N45" s="5">
+        <v>0.42300000000000004</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q45" s="2"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1">
@@ -3878,13 +3835,12 @@
       <c r="L46" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N46" s="2">
-        <v>0.01815</v>
+      <c r="N46" s="5">
+        <v>1.815</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q46" s="2"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1">
@@ -3926,13 +3882,12 @@
       <c r="M47" s="1">
         <v>77.1</v>
       </c>
-      <c r="N47" s="2">
-        <v>0.02196</v>
+      <c r="N47" s="5">
+        <v>2.196</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q47" s="2"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1">
@@ -3974,13 +3929,12 @@
       <c r="M48" s="1">
         <v>0.2</v>
       </c>
-      <c r="N48" s="2">
-        <v>0.00826</v>
+      <c r="N48" s="5">
+        <v>0.826</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q48" s="2"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1">
@@ -4022,13 +3976,12 @@
       <c r="M49" s="1">
         <v>22.5</v>
       </c>
-      <c r="N49" s="2">
-        <v>0.01333</v>
+      <c r="N49" s="5">
+        <v>1.333</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q49" s="2"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1">
@@ -4070,13 +4023,12 @@
       <c r="M50" s="1">
         <v>1.6</v>
       </c>
-      <c r="N50" s="2">
-        <v>0.01159</v>
+      <c r="N50" s="5">
+        <v>1.159</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q50" s="2"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1">
@@ -4091,7 +4043,7 @@
       <c r="D51" s="1">
         <v>476312.0</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="7">
         <v>44379.0</v>
       </c>
       <c r="F51" s="1">
@@ -4118,13 +4070,12 @@
       <c r="M51" s="1">
         <v>3.6</v>
       </c>
-      <c r="N51" s="2">
-        <v>4.61E-5</v>
+      <c r="N51" s="5">
+        <v>0.00461</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q51" s="2"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1">
@@ -4166,13 +4117,12 @@
       <c r="M52" s="1">
         <v>1.3</v>
       </c>
-      <c r="N52" s="2">
-        <v>0.05798</v>
+      <c r="N52" s="5">
+        <v>5.798</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q52" s="2"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1">
@@ -4214,13 +4164,12 @@
       <c r="M53" s="1">
         <v>2.2</v>
       </c>
-      <c r="N53" s="2">
-        <v>0.03016</v>
+      <c r="N53" s="5">
+        <v>3.016</v>
       </c>
       <c r="O53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q53" s="2"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1">
@@ -4256,13 +4205,12 @@
       <c r="L54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N54" s="2">
-        <v>0.01393</v>
+      <c r="N54" s="5">
+        <v>1.393</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q54" s="2"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1">
@@ -4298,13 +4246,12 @@
       <c r="L55" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="N55" s="2">
-        <v>0.00497</v>
+      <c r="N55" s="5">
+        <v>0.49699999999999994</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q55" s="2"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1">
@@ -4346,13 +4293,12 @@
       <c r="M56" s="1">
         <v>0.5</v>
       </c>
-      <c r="N56" s="2">
-        <v>0.00964</v>
+      <c r="N56" s="5">
+        <v>0.964</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q56" s="2"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1">
@@ -4391,13 +4337,12 @@
       <c r="L57" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="N57" s="2">
-        <v>0.03385</v>
+      <c r="N57" s="5">
+        <v>3.385</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q57" s="2"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1">
@@ -4436,13 +4381,12 @@
       <c r="M58" s="1">
         <v>26.7</v>
       </c>
-      <c r="N58" s="2">
-        <v>0.01569</v>
+      <c r="N58" s="5">
+        <v>1.569</v>
       </c>
       <c r="O58" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q58" s="2"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1">
@@ -4484,13 +4428,12 @@
       <c r="M59" s="1">
         <v>1.4</v>
       </c>
-      <c r="N59" s="2">
-        <v>0.00618</v>
+      <c r="N59" s="5">
+        <v>0.618</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q59" s="2"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1">
@@ -4529,13 +4472,12 @@
       <c r="L60" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N60" s="2">
-        <v>0.00976</v>
+      <c r="N60" s="5">
+        <v>0.976</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q60" s="2"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1">
@@ -4574,13 +4516,12 @@
       <c r="L61" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N61" s="2">
-        <v>0.01868</v>
+      <c r="N61" s="5">
+        <v>1.8679999999999999</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q61" s="2"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1">
@@ -4622,13 +4563,12 @@
       <c r="M62" s="1">
         <v>3.4</v>
       </c>
-      <c r="N62" s="2">
-        <v>0.00645</v>
+      <c r="N62" s="5">
+        <v>0.645</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q62" s="2"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1">
@@ -4670,13 +4610,12 @@
       <c r="M63" s="1">
         <v>10.1</v>
       </c>
-      <c r="N63" s="2">
-        <v>0.02746</v>
+      <c r="N63" s="5">
+        <v>2.746</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q63" s="2"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1">
@@ -4718,13 +4657,12 @@
       <c r="M64" s="1">
         <v>4.2</v>
       </c>
-      <c r="N64" s="2">
-        <v>0.01433</v>
+      <c r="N64" s="5">
+        <v>1.433</v>
       </c>
       <c r="O64" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q64" s="2"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1">
@@ -4763,13 +4701,12 @@
       <c r="L65" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="N65" s="2">
-        <v>0.02435</v>
+      <c r="N65" s="5">
+        <v>2.435</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q65" s="2"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1">
@@ -4811,13 +4748,12 @@
       <c r="M66" s="1">
         <v>12.0</v>
       </c>
-      <c r="N66" s="2">
-        <v>0.00822</v>
+      <c r="N66" s="5">
+        <v>0.822</v>
       </c>
       <c r="O66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q66" s="2"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1">
@@ -4859,13 +4795,12 @@
       <c r="M67" s="1">
         <v>1.5</v>
       </c>
-      <c r="N67" s="2">
-        <v>0.02795</v>
+      <c r="N67" s="5">
+        <v>2.795</v>
       </c>
       <c r="O67" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q67" s="2"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1">
@@ -4901,13 +4836,12 @@
       <c r="L68" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N68" s="2">
-        <v>0.00621</v>
+      <c r="N68" s="5">
+        <v>0.621</v>
       </c>
       <c r="O68" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q68" s="2"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1">
@@ -4949,13 +4883,12 @@
       <c r="M69" s="1">
         <v>8.7</v>
       </c>
-      <c r="N69" s="2">
-        <v>0.02969</v>
+      <c r="N69" s="5">
+        <v>2.9690000000000003</v>
       </c>
       <c r="O69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q69" s="2"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1">
@@ -4997,13 +4930,12 @@
       <c r="M70" s="1">
         <v>35.3</v>
       </c>
-      <c r="N70" s="2">
-        <v>0.00769</v>
+      <c r="N70" s="5">
+        <v>0.769</v>
       </c>
       <c r="O70" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q70" s="2"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1">
@@ -5042,13 +4974,12 @@
       <c r="M71" s="1">
         <v>67.1</v>
       </c>
-      <c r="N71" s="2">
-        <v>0.01802</v>
+      <c r="N71" s="5">
+        <v>1.802</v>
       </c>
       <c r="O71" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q71" s="2"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1">
@@ -5087,13 +5018,12 @@
       <c r="L72" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="N72" s="2">
-        <v>0.02375</v>
+      <c r="N72" s="5">
+        <v>2.375</v>
       </c>
       <c r="O72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q72" s="2"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1">
@@ -5132,13 +5062,12 @@
       <c r="M73" s="1">
         <v>23.5</v>
       </c>
-      <c r="N73" s="2">
-        <v>0.02599</v>
+      <c r="N73" s="5">
+        <v>2.5989999999999998</v>
       </c>
       <c r="O73" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q73" s="2"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1">
@@ -5180,13 +5109,12 @@
       <c r="M74" s="1">
         <v>16.0</v>
       </c>
-      <c r="N74" s="2">
-        <v>0.02659</v>
+      <c r="N74" s="5">
+        <v>2.659</v>
       </c>
       <c r="O74" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q74" s="2"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1">
@@ -5225,13 +5153,12 @@
       <c r="L75" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="N75" s="2">
-        <v>0.01773</v>
+      <c r="N75" s="5">
+        <v>1.773</v>
       </c>
       <c r="O75" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q75" s="2"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1">
@@ -5273,13 +5200,12 @@
       <c r="M76" s="1">
         <v>0.5</v>
       </c>
-      <c r="N76" s="2">
-        <v>0.03711</v>
+      <c r="N76" s="5">
+        <v>3.711</v>
       </c>
       <c r="O76" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q76" s="2"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1">
@@ -5321,13 +5247,12 @@
       <c r="M77" s="1">
         <v>0.2</v>
       </c>
-      <c r="N77" s="2">
-        <v>0.00447</v>
+      <c r="N77" s="5">
+        <v>0.447</v>
       </c>
       <c r="O77" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q77" s="2"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1">
@@ -5369,13 +5294,12 @@
       <c r="M78" s="1">
         <v>21.2</v>
       </c>
-      <c r="N78" s="2">
-        <v>1.3300000000000001E-5</v>
+      <c r="N78" s="5">
+        <v>0.0013300000000000002</v>
       </c>
       <c r="O78" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q78" s="2"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1">
@@ -5417,13 +5341,12 @@
       <c r="M79" s="1">
         <v>5.7</v>
       </c>
-      <c r="N79" s="2">
-        <v>0.02573</v>
+      <c r="N79" s="5">
+        <v>2.573</v>
       </c>
       <c r="O79" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q79" s="2"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1">
@@ -5465,13 +5388,12 @@
       <c r="M80" s="1">
         <v>0.2</v>
       </c>
-      <c r="N80" s="2">
-        <v>0.02462</v>
+      <c r="N80" s="5">
+        <v>2.4619999999999997</v>
       </c>
       <c r="O80" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q80" s="2"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1">
@@ -5513,13 +5435,12 @@
       <c r="M81" s="1">
         <v>2.5</v>
       </c>
-      <c r="N81" s="2">
-        <v>0.01192</v>
+      <c r="N81" s="5">
+        <v>1.192</v>
       </c>
       <c r="O81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q81" s="2"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1">
@@ -5561,13 +5482,12 @@
       <c r="M82" s="1">
         <v>0.2</v>
       </c>
-      <c r="N82" s="2">
-        <v>0.01757</v>
+      <c r="N82" s="5">
+        <v>1.757</v>
       </c>
       <c r="O82" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q82" s="2"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1">
@@ -5609,13 +5529,12 @@
       <c r="M83" s="1">
         <v>0.5</v>
       </c>
-      <c r="N83" s="2">
-        <v>0.00756</v>
+      <c r="N83" s="5">
+        <v>0.756</v>
       </c>
       <c r="O83" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q83" s="2"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1">
@@ -5657,13 +5576,12 @@
       <c r="M84" s="1">
         <v>2.0</v>
       </c>
-      <c r="N84" s="2">
-        <v>0.02981</v>
+      <c r="N84" s="5">
+        <v>2.981</v>
       </c>
       <c r="O84" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q84" s="2"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1">
@@ -5702,13 +5620,12 @@
       <c r="L85" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="N85" s="2">
-        <v>0.02259</v>
+      <c r="N85" s="5">
+        <v>2.259</v>
       </c>
       <c r="O85" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q85" s="2"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1">
@@ -5747,13 +5664,12 @@
       <c r="L86" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N86" s="2">
-        <v>0.01777</v>
+      <c r="N86" s="5">
+        <v>1.7770000000000001</v>
       </c>
       <c r="O86" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q86" s="2"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1">
@@ -5795,13 +5711,12 @@
       <c r="M87" s="1">
         <v>0.1</v>
       </c>
-      <c r="N87" s="2">
-        <v>0.44256</v>
+      <c r="N87" s="5">
+        <v>44.256</v>
       </c>
       <c r="O87" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q87" s="2"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1">
@@ -5843,13 +5758,12 @@
       <c r="M88" s="1">
         <v>0.1</v>
       </c>
-      <c r="N88" s="2">
-        <v>0.0066</v>
+      <c r="N88" s="5">
+        <v>0.66</v>
       </c>
       <c r="O88" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q88" s="2"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1">
@@ -5891,13 +5805,12 @@
       <c r="M89" s="1">
         <v>36.8</v>
       </c>
-      <c r="N89" s="2">
-        <v>0.01958</v>
+      <c r="N89" s="5">
+        <v>1.958</v>
       </c>
       <c r="O89" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q89" s="2"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1">
@@ -5933,13 +5846,12 @@
       <c r="M90" s="1">
         <v>0.6</v>
       </c>
-      <c r="N90" s="2">
-        <v>0.02102</v>
+      <c r="N90" s="5">
+        <v>2.102</v>
       </c>
       <c r="O90" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q90" s="2"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1">
@@ -5978,13 +5890,12 @@
       <c r="L91" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N91" s="2">
-        <v>0.00578</v>
+      <c r="N91" s="5">
+        <v>0.5780000000000001</v>
       </c>
       <c r="O91" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q91" s="2"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1">
@@ -6026,13 +5937,12 @@
       <c r="M92" s="1">
         <v>1.4</v>
       </c>
-      <c r="N92" s="2">
-        <v>0.01454</v>
+      <c r="N92" s="5">
+        <v>1.4540000000000002</v>
       </c>
       <c r="O92" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q92" s="2"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1">
@@ -6074,13 +5984,12 @@
       <c r="M93" s="1">
         <v>22.7</v>
       </c>
-      <c r="N93" s="2">
-        <v>0.00141</v>
+      <c r="N93" s="5">
+        <v>0.14100000000000001</v>
       </c>
       <c r="O93" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q93" s="2"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1">
@@ -6122,13 +6031,12 @@
       <c r="M94" s="1">
         <v>0.7</v>
       </c>
-      <c r="N94" s="2">
-        <v>0.01841</v>
+      <c r="N94" s="5">
+        <v>1.841</v>
       </c>
       <c r="O94" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q94" s="2"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1">
@@ -6167,13 +6075,12 @@
       <c r="L95" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N95" s="2">
-        <v>0.01431</v>
+      <c r="N95" s="5">
+        <v>1.431</v>
       </c>
       <c r="O95" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q95" s="2"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1">
@@ -6215,13 +6122,12 @@
       <c r="M96" s="1">
         <v>59.6</v>
       </c>
-      <c r="N96" s="2">
-        <v>0.02734</v>
+      <c r="N96" s="5">
+        <v>2.734</v>
       </c>
       <c r="O96" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q96" s="2"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1">
@@ -6263,13 +6169,12 @@
       <c r="M97" s="1">
         <v>38.6</v>
       </c>
-      <c r="N97" s="2">
-        <v>0.02743</v>
+      <c r="N97" s="5">
+        <v>2.743</v>
       </c>
       <c r="O97" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q97" s="2"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1">
@@ -6305,13 +6210,12 @@
       <c r="L98" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N98" s="2">
-        <v>0.01467</v>
+      <c r="N98" s="5">
+        <v>1.467</v>
       </c>
       <c r="O98" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q98" s="2"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1">
@@ -6344,13 +6248,12 @@
       <c r="L99" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N99" s="2">
-        <v>0.01922</v>
+      <c r="N99" s="5">
+        <v>1.9220000000000002</v>
       </c>
       <c r="O99" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q99" s="2"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1">
@@ -6392,13 +6295,12 @@
       <c r="M100" s="1">
         <v>0.7</v>
       </c>
-      <c r="N100" s="2">
-        <v>0.01574</v>
+      <c r="N100" s="5">
+        <v>1.574</v>
       </c>
       <c r="O100" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q100" s="2"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1">
@@ -6440,13 +6342,12 @@
       <c r="M101" s="1">
         <v>0.2</v>
       </c>
-      <c r="N101" s="2">
-        <v>0.01125</v>
+      <c r="N101" s="5">
+        <v>1.125</v>
       </c>
       <c r="O101" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q101" s="2"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1">
@@ -6485,13 +6386,12 @@
       <c r="M102" s="1">
         <v>77.6</v>
       </c>
-      <c r="N102" s="2">
-        <v>0.02203</v>
+      <c r="N102" s="5">
+        <v>2.2030000000000003</v>
       </c>
       <c r="O102" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q102" s="2"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1">
@@ -6533,13 +6433,12 @@
       <c r="M103" s="1">
         <v>71.4</v>
       </c>
-      <c r="N103" s="2">
-        <v>0.03086</v>
+      <c r="N103" s="5">
+        <v>3.086</v>
       </c>
       <c r="O103" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q103" s="2"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1">
@@ -6581,13 +6480,12 @@
       <c r="M104" s="1">
         <v>0.1</v>
       </c>
-      <c r="N104" s="2">
-        <v>0.00771</v>
+      <c r="N104" s="5">
+        <v>0.771</v>
       </c>
       <c r="O104" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q104" s="2"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1">
@@ -6623,13 +6521,12 @@
       <c r="L105" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N105" s="2">
-        <v>0.00284</v>
+      <c r="N105" s="5">
+        <v>0.28400000000000003</v>
       </c>
       <c r="O105" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q105" s="2"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1">
@@ -6668,13 +6565,12 @@
       <c r="L106" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="N106" s="2">
-        <v>0.03652</v>
+      <c r="N106" s="5">
+        <v>3.6519999999999997</v>
       </c>
       <c r="O106" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q106" s="2"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1">
@@ -6716,13 +6612,12 @@
       <c r="M107" s="1">
         <v>0.2</v>
       </c>
-      <c r="N107" s="2">
-        <v>0.01288</v>
+      <c r="N107" s="5">
+        <v>1.288</v>
       </c>
       <c r="O107" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q107" s="2"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1">
@@ -6764,13 +6659,12 @@
       <c r="M108" s="1">
         <v>6.0</v>
       </c>
-      <c r="N108" s="2">
-        <v>0.02246</v>
+      <c r="N108" s="5">
+        <v>2.246</v>
       </c>
       <c r="O108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q108" s="2"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1">
@@ -6812,13 +6706,12 @@
       <c r="M109" s="1">
         <v>0.5</v>
       </c>
-      <c r="N109" s="2">
-        <v>0.0075</v>
+      <c r="N109" s="5">
+        <v>0.75</v>
       </c>
       <c r="O109" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q109" s="2"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1">
@@ -6860,13 +6753,12 @@
       <c r="M110" s="1">
         <v>2.5</v>
       </c>
-      <c r="N110" s="2">
-        <v>0.08875</v>
+      <c r="N110" s="5">
+        <v>8.875</v>
       </c>
       <c r="O110" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q110" s="2"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1">
@@ -6908,13 +6800,12 @@
       <c r="M111" s="1">
         <v>0.2</v>
       </c>
-      <c r="N111" s="2">
-        <v>0.02414</v>
+      <c r="N111" s="5">
+        <v>2.414</v>
       </c>
       <c r="O111" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q111" s="2"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1">
@@ -6944,13 +6835,12 @@
       <c r="I112" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="N112" s="2">
-        <v>0.01225</v>
+      <c r="N112" s="5">
+        <v>1.225</v>
       </c>
       <c r="O112" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q112" s="2"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1">
@@ -6992,13 +6882,12 @@
       <c r="M113" s="1">
         <v>0.5</v>
       </c>
-      <c r="N113" s="2">
-        <v>0.00499</v>
+      <c r="N113" s="5">
+        <v>0.49899999999999994</v>
       </c>
       <c r="O113" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q113" s="2"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1">
@@ -7037,13 +6926,12 @@
       <c r="M114" s="1">
         <v>1.0</v>
       </c>
-      <c r="N114" s="2">
-        <v>0.01612</v>
+      <c r="N114" s="5">
+        <v>1.6119999999999999</v>
       </c>
       <c r="O114" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q114" s="2"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1">
@@ -7085,13 +6973,12 @@
       <c r="M115" s="1">
         <v>1.0</v>
       </c>
-      <c r="N115" s="2">
-        <v>0.01694</v>
+      <c r="N115" s="5">
+        <v>1.694</v>
       </c>
       <c r="O115" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q115" s="2"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1">
@@ -7133,13 +7020,12 @@
       <c r="M116" s="1">
         <v>62.9</v>
       </c>
-      <c r="N116" s="2">
-        <v>0.01129</v>
+      <c r="N116" s="5">
+        <v>1.129</v>
       </c>
       <c r="O116" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q116" s="2"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1">
@@ -7181,13 +7067,12 @@
       <c r="M117" s="1">
         <v>6.4</v>
       </c>
-      <c r="N117" s="2">
-        <v>2.25E-5</v>
+      <c r="N117" s="5">
+        <v>0.0022500000000000003</v>
       </c>
       <c r="O117" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q117" s="2"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1">
@@ -7229,13 +7114,12 @@
       <c r="M118" s="1">
         <v>13.4</v>
       </c>
-      <c r="N118" s="2">
-        <v>0.02244</v>
+      <c r="N118" s="5">
+        <v>2.244</v>
       </c>
       <c r="O118" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q118" s="2"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1">
@@ -7277,13 +7161,12 @@
       <c r="M119" s="1">
         <v>15.0</v>
       </c>
-      <c r="N119" s="2">
-        <v>0.01433</v>
+      <c r="N119" s="5">
+        <v>1.433</v>
       </c>
       <c r="O119" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q119" s="2"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1">
@@ -7322,13 +7205,12 @@
       <c r="L120" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N120" s="2">
-        <v>0.00984</v>
+      <c r="N120" s="5">
+        <v>0.984</v>
       </c>
       <c r="O120" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q120" s="2"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1">
@@ -7367,13 +7249,12 @@
       <c r="L121" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N121" s="2">
-        <v>0.00921</v>
+      <c r="N121" s="5">
+        <v>0.9209999999999999</v>
       </c>
       <c r="O121" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q121" s="2"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1">
@@ -7415,13 +7296,12 @@
       <c r="M122" s="1">
         <v>3.2</v>
       </c>
-      <c r="N122" s="2">
-        <v>0.02201</v>
+      <c r="N122" s="5">
+        <v>2.2009999999999996</v>
       </c>
       <c r="O122" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q122" s="2"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1">
@@ -7463,13 +7343,12 @@
       <c r="M123" s="1">
         <v>44.5</v>
       </c>
-      <c r="N123" s="2">
-        <v>3.47E-5</v>
+      <c r="N123" s="5">
+        <v>0.0034700000000000004</v>
       </c>
       <c r="O123" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q123" s="2"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1">
@@ -7508,13 +7387,12 @@
       <c r="L124" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N124" s="2">
-        <v>0.01254</v>
+      <c r="N124" s="5">
+        <v>1.254</v>
       </c>
       <c r="O124" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q124" s="2"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1">
@@ -7553,13 +7431,12 @@
       <c r="M125" s="1">
         <v>5.0</v>
       </c>
-      <c r="N125" s="2">
-        <v>0.03519</v>
+      <c r="N125" s="5">
+        <v>3.519</v>
       </c>
       <c r="O125" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q125" s="2"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1">
@@ -7601,13 +7478,12 @@
       <c r="M126" s="1">
         <v>0.2</v>
       </c>
-      <c r="N126" s="2">
-        <v>0.00592</v>
+      <c r="N126" s="5">
+        <v>0.592</v>
       </c>
       <c r="O126" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q126" s="2"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1">
@@ -7646,13 +7522,12 @@
       <c r="L127" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N127" s="2">
-        <v>1.21E-5</v>
+      <c r="N127" s="5">
+        <v>0.00121</v>
       </c>
       <c r="O127" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q127" s="2"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1">
@@ -7694,13 +7569,12 @@
       <c r="M128" s="1">
         <v>4.0</v>
       </c>
-      <c r="N128" s="2">
-        <v>0.02299</v>
+      <c r="N128" s="5">
+        <v>2.299</v>
       </c>
       <c r="O128" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q128" s="2"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1">
@@ -7742,13 +7616,12 @@
       <c r="M129" s="1">
         <v>1.0</v>
       </c>
-      <c r="N129" s="2">
-        <v>0.01137</v>
+      <c r="N129" s="5">
+        <v>1.137</v>
       </c>
       <c r="O129" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q129" s="2"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1">
@@ -7790,13 +7663,12 @@
       <c r="M130" s="1">
         <v>2.2</v>
       </c>
-      <c r="N130" s="2">
-        <v>0.01585</v>
+      <c r="N130" s="5">
+        <v>1.585</v>
       </c>
       <c r="O130" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q130" s="2"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1">
@@ -7835,13 +7707,12 @@
       <c r="L131" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N131" s="2">
-        <v>0.01071</v>
+      <c r="N131" s="5">
+        <v>1.0710000000000002</v>
       </c>
       <c r="O131" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q131" s="2"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1">
@@ -7883,13 +7754,12 @@
       <c r="M132" s="1">
         <v>1.7</v>
       </c>
-      <c r="N132" s="2">
-        <v>0.03218</v>
+      <c r="N132" s="5">
+        <v>3.218</v>
       </c>
       <c r="O132" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q132" s="2"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1">
@@ -7931,13 +7801,12 @@
       <c r="M133" s="1">
         <v>3.5</v>
       </c>
-      <c r="N133" s="2">
-        <v>0.09322</v>
+      <c r="N133" s="5">
+        <v>9.322</v>
       </c>
       <c r="O133" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q133" s="2"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1">
@@ -7976,13 +7845,12 @@
       <c r="L134" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N134" s="2">
-        <v>1.77E-5</v>
+      <c r="N134" s="5">
+        <v>0.00177</v>
       </c>
       <c r="O134" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q134" s="2"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1">
@@ -8021,13 +7889,12 @@
       <c r="L135" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="N135" s="2">
-        <v>2.6099999999999997E-5</v>
+      <c r="N135" s="5">
+        <v>0.00261</v>
       </c>
       <c r="O135" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q135" s="2"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1">
@@ -8069,13 +7936,12 @@
       <c r="M136" s="1">
         <v>0.5</v>
       </c>
-      <c r="N136" s="2">
-        <v>0.01846</v>
+      <c r="N136" s="5">
+        <v>1.846</v>
       </c>
       <c r="O136" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q136" s="2"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1">
@@ -8114,13 +7980,12 @@
       <c r="L137" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N137" s="2">
-        <v>0.00267</v>
+      <c r="N137" s="5">
+        <v>0.267</v>
       </c>
       <c r="O137" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q137" s="2"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1">
@@ -8162,13 +8027,12 @@
       <c r="M138" s="1">
         <v>5.7</v>
       </c>
-      <c r="N138" s="2">
-        <v>0.03167</v>
+      <c r="N138" s="5">
+        <v>3.167</v>
       </c>
       <c r="O138" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q138" s="2"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1">
@@ -8210,13 +8074,12 @@
       <c r="M139" s="1">
         <v>0.1</v>
       </c>
-      <c r="N139" s="2">
-        <v>0.02483</v>
+      <c r="N139" s="5">
+        <v>2.483</v>
       </c>
       <c r="O139" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q139" s="2"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1">
@@ -8258,13 +8121,12 @@
       <c r="M140" s="1">
         <v>56.0</v>
       </c>
-      <c r="N140" s="2">
-        <v>0.01144</v>
+      <c r="N140" s="5">
+        <v>1.1440000000000001</v>
       </c>
       <c r="O140" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q140" s="2"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1">
@@ -8297,13 +8159,12 @@
       <c r="L141" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N141" s="2">
-        <v>0.00542</v>
+      <c r="N141" s="5">
+        <v>0.542</v>
       </c>
       <c r="O141" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q141" s="2"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1">
@@ -8339,13 +8200,12 @@
       <c r="L142" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N142" s="2">
-        <v>0.01587</v>
+      <c r="N142" s="5">
+        <v>1.587</v>
       </c>
       <c r="O142" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q142" s="2"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1">
@@ -8360,7 +8220,7 @@
       <c r="D143" s="1">
         <v>2263.0</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E143" s="8">
         <v>44288.0</v>
       </c>
       <c r="F143" s="1">
@@ -8378,13 +8238,12 @@
       <c r="L143" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N143" s="2">
-        <v>0.0053</v>
+      <c r="N143" s="5">
+        <v>0.53</v>
       </c>
       <c r="O143" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q143" s="2"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1">
@@ -8417,13 +8276,12 @@
       <c r="K144" s="1">
         <v>56861.47</v>
       </c>
-      <c r="N144" s="2">
-        <v>0.01765</v>
+      <c r="N144" s="5">
+        <v>1.765</v>
       </c>
       <c r="O144" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q144" s="2"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1">
@@ -8438,7 +8296,7 @@
       <c r="D145" s="1">
         <v>2410.0</v>
       </c>
-      <c r="E145" s="6">
+      <c r="E145" s="7">
         <v>44197.0</v>
       </c>
       <c r="F145" s="1">
@@ -8462,13 +8320,12 @@
       <c r="M145" s="1">
         <v>32.3</v>
       </c>
-      <c r="N145" s="2">
-        <v>0.01701</v>
+      <c r="N145" s="5">
+        <v>1.701</v>
       </c>
       <c r="O145" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q145" s="2"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1">
@@ -8507,13 +8364,12 @@
       <c r="L146" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N146" s="2">
-        <v>0.01586</v>
+      <c r="N146" s="5">
+        <v>1.5859999999999999</v>
       </c>
       <c r="O146" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q146" s="2"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1">
@@ -8555,13 +8411,12 @@
       <c r="M147" s="1">
         <v>38.0</v>
       </c>
-      <c r="N147" s="2">
-        <v>2.33E-5</v>
+      <c r="N147" s="5">
+        <v>0.00233</v>
       </c>
       <c r="O147" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q147" s="2"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1">
@@ -8600,13 +8455,12 @@
       <c r="L148" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N148" s="2">
-        <v>0.00986</v>
+      <c r="N148" s="5">
+        <v>0.9860000000000001</v>
       </c>
       <c r="O148" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q148" s="2"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1">
@@ -8648,13 +8502,12 @@
       <c r="M149" s="1">
         <v>1.1</v>
       </c>
-      <c r="N149" s="2">
-        <v>0.0049</v>
+      <c r="N149" s="5">
+        <v>0.49</v>
       </c>
       <c r="O149" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q149" s="2"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1">
@@ -8696,13 +8549,12 @@
       <c r="M150" s="1">
         <v>52.2</v>
       </c>
-      <c r="N150" s="2">
-        <v>0.01858</v>
+      <c r="N150" s="5">
+        <v>1.8579999999999999</v>
       </c>
       <c r="O150" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q150" s="2"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1">
@@ -8741,13 +8593,12 @@
       <c r="L151" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N151" s="2">
-        <v>5.7E-4</v>
+      <c r="N151" s="5">
+        <v>0.056999999999999995</v>
       </c>
       <c r="O151" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q151" s="2"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1">
@@ -8789,13 +8640,12 @@
       <c r="M152" s="1">
         <v>0.7</v>
       </c>
-      <c r="N152" s="2">
-        <v>0.03195</v>
+      <c r="N152" s="5">
+        <v>3.195</v>
       </c>
       <c r="O152" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q152" s="2"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1">
@@ -8834,13 +8684,12 @@
       <c r="L153" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N153" s="2">
-        <v>0.01714</v>
+      <c r="N153" s="5">
+        <v>1.714</v>
       </c>
       <c r="O153" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q153" s="2"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1">
@@ -8873,13 +8722,12 @@
       <c r="J154" s="1">
         <v>16.8</v>
       </c>
-      <c r="N154" s="2">
-        <v>0.05164</v>
+      <c r="N154" s="5">
+        <v>5.164</v>
       </c>
       <c r="O154" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q154" s="2"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1">
@@ -8921,13 +8769,12 @@
       <c r="M155" s="1">
         <v>18.9</v>
       </c>
-      <c r="N155" s="2">
-        <v>0.02914</v>
+      <c r="N155" s="5">
+        <v>2.9139999999999997</v>
       </c>
       <c r="O155" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q155" s="2"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1">
@@ -8969,13 +8816,12 @@
       <c r="M156" s="1">
         <v>0.2</v>
       </c>
-      <c r="N156" s="2">
-        <v>0.01141</v>
+      <c r="N156" s="5">
+        <v>1.141</v>
       </c>
       <c r="O156" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q156" s="2"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1">
@@ -9014,13 +8860,12 @@
       <c r="L157" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="N157" s="2">
-        <v>0.01072</v>
+      <c r="N157" s="5">
+        <v>1.072</v>
       </c>
       <c r="O157" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q157" s="2"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1">
@@ -9062,13 +8907,12 @@
       <c r="M158" s="1">
         <v>1.0</v>
       </c>
-      <c r="N158" s="2">
-        <v>0.01949</v>
+      <c r="N158" s="5">
+        <v>1.949</v>
       </c>
       <c r="O158" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q158" s="2"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1">
@@ -9110,13 +8954,12 @@
       <c r="M159" s="1">
         <v>0.7</v>
       </c>
-      <c r="N159" s="2">
-        <v>0.01336</v>
+      <c r="N159" s="5">
+        <v>1.336</v>
       </c>
       <c r="O159" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q159" s="2"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1">
@@ -9155,13 +8998,12 @@
       <c r="L160" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N160" s="2">
-        <v>0.07475</v>
+      <c r="N160" s="5">
+        <v>7.475</v>
       </c>
       <c r="O160" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q160" s="2"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1">
@@ -9200,13 +9042,12 @@
       <c r="L161" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N161" s="2">
-        <v>0.02526</v>
+      <c r="N161" s="5">
+        <v>2.5260000000000002</v>
       </c>
       <c r="O161" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q161" s="2"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1">
@@ -9248,13 +9089,12 @@
       <c r="M162" s="1">
         <v>0.5</v>
       </c>
-      <c r="N162" s="2">
-        <v>0.01338</v>
+      <c r="N162" s="5">
+        <v>1.3379999999999999</v>
       </c>
       <c r="O162" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q162" s="2"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1">
@@ -9293,13 +9133,12 @@
       <c r="L163" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="N163" s="2">
-        <v>0.01537</v>
+      <c r="N163" s="5">
+        <v>1.537</v>
       </c>
       <c r="O163" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q163" s="2"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1">
@@ -9335,13 +9174,12 @@
       <c r="L164" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N164" s="2">
-        <v>0.07372</v>
+      <c r="N164" s="5">
+        <v>7.371999999999999</v>
       </c>
       <c r="O164" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q164" s="2"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1">
@@ -9374,13 +9212,12 @@
       <c r="J165" s="1">
         <v>42.2</v>
       </c>
-      <c r="N165" s="2">
-        <v>0.04984</v>
+      <c r="N165" s="5">
+        <v>4.984</v>
       </c>
       <c r="O165" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q165" s="2"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1">
@@ -9422,13 +9259,12 @@
       <c r="M166" s="1">
         <v>4.8</v>
       </c>
-      <c r="N166" s="2">
-        <v>0.0079</v>
+      <c r="N166" s="5">
+        <v>0.79</v>
       </c>
       <c r="O166" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q166" s="2"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1">
@@ -9467,13 +9303,12 @@
       <c r="M167" s="1">
         <v>49.1</v>
       </c>
-      <c r="N167" s="2">
-        <v>0.04126</v>
+      <c r="N167" s="5">
+        <v>4.1259999999999994</v>
       </c>
       <c r="O167" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q167" s="2"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1">
@@ -9515,13 +9350,12 @@
       <c r="M168" s="1">
         <v>0.1</v>
       </c>
-      <c r="N168" s="2">
-        <v>0.00824</v>
+      <c r="N168" s="5">
+        <v>0.8240000000000001</v>
       </c>
       <c r="O168" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q168" s="2"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1">
@@ -9563,13 +9397,12 @@
       <c r="M169" s="1">
         <v>30.3</v>
       </c>
-      <c r="N169" s="2">
-        <v>0.00256</v>
+      <c r="N169" s="5">
+        <v>0.256</v>
       </c>
       <c r="O169" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q169" s="2"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1">
@@ -9611,13 +9444,12 @@
       <c r="M170" s="1">
         <v>49.2</v>
       </c>
-      <c r="N170" s="2">
-        <v>0.0094</v>
+      <c r="N170" s="5">
+        <v>0.9400000000000001</v>
       </c>
       <c r="O170" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q170" s="2"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1">
@@ -9656,13 +9488,12 @@
       <c r="L171" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N171" s="2">
-        <v>0.02757</v>
+      <c r="N171" s="5">
+        <v>2.757</v>
       </c>
       <c r="O171" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q171" s="2"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1">
@@ -9704,13 +9535,12 @@
       <c r="M172" s="1">
         <v>2.0</v>
       </c>
-      <c r="N172" s="2">
-        <v>0.03215</v>
+      <c r="N172" s="5">
+        <v>3.215</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q172" s="2"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1">
@@ -9752,13 +9582,12 @@
       <c r="M173" s="1">
         <v>0.2</v>
       </c>
-      <c r="N173" s="2">
-        <v>0.00914</v>
+      <c r="N173" s="5">
+        <v>0.914</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q173" s="2"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1">
@@ -9800,13 +9629,12 @@
       <c r="M174" s="1">
         <v>41.6</v>
       </c>
-      <c r="N174" s="2">
-        <v>0.02639</v>
+      <c r="N174" s="5">
+        <v>2.6390000000000002</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q174" s="2"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1">
@@ -9848,13 +9676,12 @@
       <c r="M175" s="1">
         <v>0.1</v>
       </c>
-      <c r="N175" s="2">
-        <v>2.38E-5</v>
+      <c r="N175" s="5">
+        <v>0.0023799999999999997</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q175" s="2"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1">
@@ -9893,13 +9720,12 @@
       <c r="L176" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N176" s="2">
-        <v>0.00287</v>
+      <c r="N176" s="5">
+        <v>0.28700000000000003</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q176" s="2"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1">
@@ -9941,13 +9767,12 @@
       <c r="M177" s="1">
         <v>0.2</v>
       </c>
-      <c r="N177" s="2">
-        <v>0.02347</v>
+      <c r="N177" s="5">
+        <v>2.347</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q177" s="2"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1">
@@ -9989,13 +9814,12 @@
       <c r="M178" s="1">
         <v>1.2</v>
       </c>
-      <c r="N178" s="2">
-        <v>0.01785</v>
+      <c r="N178" s="5">
+        <v>1.7850000000000001</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q178" s="2"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1">
@@ -10037,13 +9861,12 @@
       <c r="M179" s="1">
         <v>0.1</v>
       </c>
-      <c r="N179" s="2">
-        <v>0.01554</v>
+      <c r="N179" s="5">
+        <v>1.554</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q179" s="2"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1">
@@ -10082,13 +9905,12 @@
       <c r="L180" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N180" s="2">
-        <v>0.00668</v>
+      <c r="N180" s="5">
+        <v>0.668</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q180" s="2"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1">
@@ -10127,13 +9949,12 @@
       <c r="M181" s="1">
         <v>13.2</v>
       </c>
-      <c r="N181" s="2">
-        <v>2.5E-4</v>
+      <c r="N181" s="5">
+        <v>0.025</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q181" s="2"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1">
@@ -10172,13 +9993,12 @@
       <c r="L182" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="N182" s="2">
-        <v>0.01154</v>
+      <c r="N182" s="5">
+        <v>1.154</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q182" s="2"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1">
@@ -10220,13 +10040,12 @@
       <c r="M183" s="1">
         <v>2.0</v>
       </c>
-      <c r="N183" s="2">
-        <v>0.00555</v>
+      <c r="N183" s="5">
+        <v>0.555</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q183" s="2"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1">
@@ -10268,13 +10087,12 @@
       <c r="M184" s="1">
         <v>18.8</v>
       </c>
-      <c r="N184" s="2">
-        <v>0.19608</v>
+      <c r="N184" s="5">
+        <v>19.608</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q184" s="2"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1">
@@ -10316,13 +10134,12 @@
       <c r="M185" s="1">
         <v>57.5</v>
       </c>
-      <c r="N185" s="2">
-        <v>0.01671</v>
+      <c r="N185" s="5">
+        <v>1.6709999999999998</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q185" s="2"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1">
@@ -10364,2455 +10181,2454 @@
       <c r="M186" s="1">
         <v>21.4</v>
       </c>
-      <c r="N186" s="2">
-        <v>0.03146</v>
+      <c r="N186" s="5">
+        <v>3.1460000000000004</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q186" s="2"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="N187" s="8"/>
+      <c r="N187" s="2"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="N188" s="8"/>
+      <c r="N188" s="2"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="N189" s="8"/>
+      <c r="N189" s="2"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="N190" s="8"/>
+      <c r="N190" s="2"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="N191" s="8"/>
+      <c r="N191" s="2"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="N192" s="8"/>
+      <c r="N192" s="2"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="N193" s="8"/>
+      <c r="N193" s="2"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="N194" s="8"/>
+      <c r="N194" s="2"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="N195" s="8"/>
+      <c r="N195" s="2"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="N196" s="8"/>
+      <c r="N196" s="2"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="N197" s="8"/>
+      <c r="N197" s="2"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="N198" s="8"/>
+      <c r="N198" s="2"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="N199" s="8"/>
+      <c r="N199" s="2"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="N200" s="8"/>
+      <c r="N200" s="2"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="N201" s="8"/>
+      <c r="N201" s="2"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="N202" s="8"/>
+      <c r="N202" s="2"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="N203" s="8"/>
+      <c r="N203" s="2"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="N204" s="8"/>
+      <c r="N204" s="2"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="N205" s="8"/>
+      <c r="N205" s="2"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="N206" s="8"/>
+      <c r="N206" s="2"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="N207" s="8"/>
+      <c r="N207" s="2"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="N208" s="8"/>
+      <c r="N208" s="2"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="N209" s="8"/>
+      <c r="N209" s="2"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="N210" s="8"/>
+      <c r="N210" s="2"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="N211" s="8"/>
+      <c r="N211" s="2"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="N212" s="8"/>
+      <c r="N212" s="2"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="N213" s="8"/>
+      <c r="N213" s="2"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="N214" s="8"/>
+      <c r="N214" s="2"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="N215" s="8"/>
+      <c r="N215" s="2"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="N216" s="8"/>
+      <c r="N216" s="2"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="N217" s="8"/>
+      <c r="N217" s="2"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="N218" s="8"/>
+      <c r="N218" s="2"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="N219" s="8"/>
+      <c r="N219" s="2"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="N220" s="8"/>
+      <c r="N220" s="2"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="N221" s="8"/>
+      <c r="N221" s="2"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="N222" s="8"/>
+      <c r="N222" s="2"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="N223" s="8"/>
+      <c r="N223" s="2"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="N224" s="8"/>
+      <c r="N224" s="2"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="N225" s="8"/>
+      <c r="N225" s="2"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="N226" s="8"/>
+      <c r="N226" s="2"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="N227" s="8"/>
+      <c r="N227" s="2"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="N228" s="8"/>
+      <c r="N228" s="2"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="N229" s="8"/>
+      <c r="N229" s="2"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="N230" s="8"/>
+      <c r="N230" s="2"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="N231" s="8"/>
+      <c r="N231" s="2"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="N232" s="8"/>
+      <c r="N232" s="2"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="N233" s="8"/>
+      <c r="N233" s="2"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="N234" s="8"/>
+      <c r="N234" s="2"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="N235" s="8"/>
+      <c r="N235" s="2"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="N236" s="8"/>
+      <c r="N236" s="2"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="N237" s="8"/>
+      <c r="N237" s="2"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="N238" s="8"/>
+      <c r="N238" s="2"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="N239" s="8"/>
+      <c r="N239" s="2"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="N240" s="8"/>
+      <c r="N240" s="2"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="N241" s="8"/>
+      <c r="N241" s="2"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="N242" s="8"/>
+      <c r="N242" s="2"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="N243" s="8"/>
+      <c r="N243" s="2"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="N244" s="8"/>
+      <c r="N244" s="2"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="N245" s="8"/>
+      <c r="N245" s="2"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="N246" s="8"/>
+      <c r="N246" s="2"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="N247" s="8"/>
+      <c r="N247" s="2"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="N248" s="8"/>
+      <c r="N248" s="2"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="N249" s="8"/>
+      <c r="N249" s="2"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="N250" s="8"/>
+      <c r="N250" s="2"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="N251" s="8"/>
+      <c r="N251" s="2"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="N252" s="8"/>
+      <c r="N252" s="2"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="N253" s="8"/>
+      <c r="N253" s="2"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="N254" s="8"/>
+      <c r="N254" s="2"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="N255" s="8"/>
+      <c r="N255" s="2"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="N256" s="8"/>
+      <c r="N256" s="2"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="N257" s="8"/>
+      <c r="N257" s="2"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="N258" s="8"/>
+      <c r="N258" s="2"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="N259" s="8"/>
+      <c r="N259" s="2"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="N260" s="8"/>
+      <c r="N260" s="2"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="N261" s="8"/>
+      <c r="N261" s="2"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="N262" s="8"/>
+      <c r="N262" s="2"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="N263" s="8"/>
+      <c r="N263" s="2"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="N264" s="8"/>
+      <c r="N264" s="2"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="N265" s="8"/>
+      <c r="N265" s="2"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="N266" s="8"/>
+      <c r="N266" s="2"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="N267" s="8"/>
+      <c r="N267" s="2"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="N268" s="8"/>
+      <c r="N268" s="2"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="N269" s="8"/>
+      <c r="N269" s="2"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="N270" s="8"/>
+      <c r="N270" s="2"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="N271" s="8"/>
+      <c r="N271" s="2"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="N272" s="8"/>
+      <c r="N272" s="2"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="N273" s="8"/>
+      <c r="N273" s="2"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="N274" s="8"/>
+      <c r="N274" s="2"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="N275" s="8"/>
+      <c r="N275" s="2"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="N276" s="8"/>
+      <c r="N276" s="2"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="N277" s="8"/>
+      <c r="N277" s="2"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="N278" s="8"/>
+      <c r="N278" s="2"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="N279" s="8"/>
+      <c r="N279" s="2"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="N280" s="8"/>
+      <c r="N280" s="2"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="N281" s="8"/>
+      <c r="N281" s="2"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="N282" s="8"/>
+      <c r="N282" s="2"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="N283" s="8"/>
+      <c r="N283" s="2"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="N284" s="8"/>
+      <c r="N284" s="2"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="N285" s="8"/>
+      <c r="N285" s="2"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="N286" s="8"/>
+      <c r="N286" s="2"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="N287" s="8"/>
+      <c r="N287" s="2"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="N288" s="8"/>
+      <c r="N288" s="2"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="N289" s="8"/>
+      <c r="N289" s="2"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="N290" s="8"/>
+      <c r="N290" s="2"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="N291" s="8"/>
+      <c r="N291" s="2"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="N292" s="8"/>
+      <c r="N292" s="2"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="N293" s="8"/>
+      <c r="N293" s="2"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="N294" s="8"/>
+      <c r="N294" s="2"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="N295" s="8"/>
+      <c r="N295" s="2"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="N296" s="8"/>
+      <c r="N296" s="2"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="N297" s="8"/>
+      <c r="N297" s="2"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="N298" s="8"/>
+      <c r="N298" s="2"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="N299" s="8"/>
+      <c r="N299" s="2"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="N300" s="8"/>
+      <c r="N300" s="2"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="N301" s="8"/>
+      <c r="N301" s="2"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="N302" s="8"/>
+      <c r="N302" s="2"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="N303" s="8"/>
+      <c r="N303" s="2"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="N304" s="8"/>
+      <c r="N304" s="2"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="N305" s="8"/>
+      <c r="N305" s="2"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="N306" s="8"/>
+      <c r="N306" s="2"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="N307" s="8"/>
+      <c r="N307" s="2"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="N308" s="8"/>
+      <c r="N308" s="2"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="N309" s="8"/>
+      <c r="N309" s="2"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="N310" s="8"/>
+      <c r="N310" s="2"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="N311" s="8"/>
+      <c r="N311" s="2"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="N312" s="8"/>
+      <c r="N312" s="2"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="N313" s="8"/>
+      <c r="N313" s="2"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="N314" s="8"/>
+      <c r="N314" s="2"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="N315" s="8"/>
+      <c r="N315" s="2"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="N316" s="8"/>
+      <c r="N316" s="2"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="N317" s="8"/>
+      <c r="N317" s="2"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="N318" s="8"/>
+      <c r="N318" s="2"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="N319" s="8"/>
+      <c r="N319" s="2"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="N320" s="8"/>
+      <c r="N320" s="2"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="N321" s="8"/>
+      <c r="N321" s="2"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="N322" s="8"/>
+      <c r="N322" s="2"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="N323" s="8"/>
+      <c r="N323" s="2"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="N324" s="8"/>
+      <c r="N324" s="2"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="N325" s="8"/>
+      <c r="N325" s="2"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="N326" s="8"/>
+      <c r="N326" s="2"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="N327" s="8"/>
+      <c r="N327" s="2"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="N328" s="8"/>
+      <c r="N328" s="2"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="N329" s="8"/>
+      <c r="N329" s="2"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="N330" s="8"/>
+      <c r="N330" s="2"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="N331" s="8"/>
+      <c r="N331" s="2"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="N332" s="8"/>
+      <c r="N332" s="2"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="N333" s="8"/>
+      <c r="N333" s="2"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="N334" s="8"/>
+      <c r="N334" s="2"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="N335" s="8"/>
+      <c r="N335" s="2"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="N336" s="8"/>
+      <c r="N336" s="2"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="N337" s="8"/>
+      <c r="N337" s="2"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="N338" s="8"/>
+      <c r="N338" s="2"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="N339" s="8"/>
+      <c r="N339" s="2"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="N340" s="8"/>
+      <c r="N340" s="2"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="N341" s="8"/>
+      <c r="N341" s="2"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="N342" s="8"/>
+      <c r="N342" s="2"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="N343" s="8"/>
+      <c r="N343" s="2"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="N344" s="8"/>
+      <c r="N344" s="2"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="N345" s="8"/>
+      <c r="N345" s="2"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="N346" s="8"/>
+      <c r="N346" s="2"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="N347" s="8"/>
+      <c r="N347" s="2"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="N348" s="8"/>
+      <c r="N348" s="2"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="N349" s="8"/>
+      <c r="N349" s="2"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="N350" s="8"/>
+      <c r="N350" s="2"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="N351" s="8"/>
+      <c r="N351" s="2"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="N352" s="8"/>
+      <c r="N352" s="2"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="N353" s="8"/>
+      <c r="N353" s="2"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="N354" s="8"/>
+      <c r="N354" s="2"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="N355" s="8"/>
+      <c r="N355" s="2"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="N356" s="8"/>
+      <c r="N356" s="2"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="N357" s="8"/>
+      <c r="N357" s="2"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="N358" s="8"/>
+      <c r="N358" s="2"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="N359" s="8"/>
+      <c r="N359" s="2"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="N360" s="8"/>
+      <c r="N360" s="2"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="N361" s="8"/>
+      <c r="N361" s="2"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="N362" s="8"/>
+      <c r="N362" s="2"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="N363" s="8"/>
+      <c r="N363" s="2"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="N364" s="8"/>
+      <c r="N364" s="2"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="N365" s="8"/>
+      <c r="N365" s="2"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="N366" s="8"/>
+      <c r="N366" s="2"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="N367" s="8"/>
+      <c r="N367" s="2"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="N368" s="8"/>
+      <c r="N368" s="2"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="N369" s="8"/>
+      <c r="N369" s="2"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="N370" s="8"/>
+      <c r="N370" s="2"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="N371" s="8"/>
+      <c r="N371" s="2"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="N372" s="8"/>
+      <c r="N372" s="2"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="N373" s="8"/>
+      <c r="N373" s="2"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="N374" s="8"/>
+      <c r="N374" s="2"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="N375" s="8"/>
+      <c r="N375" s="2"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="N376" s="8"/>
+      <c r="N376" s="2"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="N377" s="8"/>
+      <c r="N377" s="2"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="N378" s="8"/>
+      <c r="N378" s="2"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="N379" s="8"/>
+      <c r="N379" s="2"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="N380" s="8"/>
+      <c r="N380" s="2"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="N381" s="8"/>
+      <c r="N381" s="2"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="N382" s="8"/>
+      <c r="N382" s="2"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="N383" s="8"/>
+      <c r="N383" s="2"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="N384" s="8"/>
+      <c r="N384" s="2"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="N385" s="8"/>
+      <c r="N385" s="2"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="N386" s="8"/>
+      <c r="N386" s="2"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="N387" s="8"/>
+      <c r="N387" s="2"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="N388" s="8"/>
+      <c r="N388" s="2"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="N389" s="8"/>
+      <c r="N389" s="2"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="N390" s="8"/>
+      <c r="N390" s="2"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="N391" s="8"/>
+      <c r="N391" s="2"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="N392" s="8"/>
+      <c r="N392" s="2"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="N393" s="8"/>
+      <c r="N393" s="2"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="N394" s="8"/>
+      <c r="N394" s="2"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="N395" s="8"/>
+      <c r="N395" s="2"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="N396" s="8"/>
+      <c r="N396" s="2"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="N397" s="8"/>
+      <c r="N397" s="2"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="N398" s="8"/>
+      <c r="N398" s="2"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="N399" s="8"/>
+      <c r="N399" s="2"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="N400" s="8"/>
+      <c r="N400" s="2"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="N401" s="8"/>
+      <c r="N401" s="2"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="N402" s="8"/>
+      <c r="N402" s="2"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="N403" s="8"/>
+      <c r="N403" s="2"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="N404" s="8"/>
+      <c r="N404" s="2"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="N405" s="8"/>
+      <c r="N405" s="2"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="N406" s="8"/>
+      <c r="N406" s="2"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="N407" s="8"/>
+      <c r="N407" s="2"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="N408" s="8"/>
+      <c r="N408" s="2"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="N409" s="8"/>
+      <c r="N409" s="2"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="N410" s="8"/>
+      <c r="N410" s="2"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="N411" s="8"/>
+      <c r="N411" s="2"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="N412" s="8"/>
+      <c r="N412" s="2"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="N413" s="8"/>
+      <c r="N413" s="2"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="N414" s="8"/>
+      <c r="N414" s="2"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="N415" s="8"/>
+      <c r="N415" s="2"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="N416" s="8"/>
+      <c r="N416" s="2"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="N417" s="8"/>
+      <c r="N417" s="2"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="N418" s="8"/>
+      <c r="N418" s="2"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="N419" s="8"/>
+      <c r="N419" s="2"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="N420" s="8"/>
+      <c r="N420" s="2"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="N421" s="8"/>
+      <c r="N421" s="2"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="N422" s="8"/>
+      <c r="N422" s="2"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="N423" s="8"/>
+      <c r="N423" s="2"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="N424" s="8"/>
+      <c r="N424" s="2"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="N425" s="8"/>
+      <c r="N425" s="2"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="N426" s="8"/>
+      <c r="N426" s="2"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="N427" s="8"/>
+      <c r="N427" s="2"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="N428" s="8"/>
+      <c r="N428" s="2"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="N429" s="8"/>
+      <c r="N429" s="2"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="N430" s="8"/>
+      <c r="N430" s="2"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="N431" s="8"/>
+      <c r="N431" s="2"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="N432" s="8"/>
+      <c r="N432" s="2"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="N433" s="8"/>
+      <c r="N433" s="2"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="N434" s="8"/>
+      <c r="N434" s="2"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="N435" s="8"/>
+      <c r="N435" s="2"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="N436" s="8"/>
+      <c r="N436" s="2"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="N437" s="8"/>
+      <c r="N437" s="2"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="N438" s="8"/>
+      <c r="N438" s="2"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="N439" s="8"/>
+      <c r="N439" s="2"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="N440" s="8"/>
+      <c r="N440" s="2"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="N441" s="8"/>
+      <c r="N441" s="2"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="N442" s="8"/>
+      <c r="N442" s="2"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="N443" s="8"/>
+      <c r="N443" s="2"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="N444" s="8"/>
+      <c r="N444" s="2"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="N445" s="8"/>
+      <c r="N445" s="2"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="N446" s="8"/>
+      <c r="N446" s="2"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="N447" s="8"/>
+      <c r="N447" s="2"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="N448" s="8"/>
+      <c r="N448" s="2"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="N449" s="8"/>
+      <c r="N449" s="2"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="N450" s="8"/>
+      <c r="N450" s="2"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="N451" s="8"/>
+      <c r="N451" s="2"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="N452" s="8"/>
+      <c r="N452" s="2"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="N453" s="8"/>
+      <c r="N453" s="2"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="N454" s="8"/>
+      <c r="N454" s="2"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="N455" s="8"/>
+      <c r="N455" s="2"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="N456" s="8"/>
+      <c r="N456" s="2"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="N457" s="8"/>
+      <c r="N457" s="2"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="N458" s="8"/>
+      <c r="N458" s="2"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="N459" s="8"/>
+      <c r="N459" s="2"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="N460" s="8"/>
+      <c r="N460" s="2"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="N461" s="8"/>
+      <c r="N461" s="2"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="N462" s="8"/>
+      <c r="N462" s="2"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="N463" s="8"/>
+      <c r="N463" s="2"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="N464" s="8"/>
+      <c r="N464" s="2"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="N465" s="8"/>
+      <c r="N465" s="2"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="N466" s="8"/>
+      <c r="N466" s="2"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="N467" s="8"/>
+      <c r="N467" s="2"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="N468" s="8"/>
+      <c r="N468" s="2"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="N469" s="8"/>
+      <c r="N469" s="2"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="N470" s="8"/>
+      <c r="N470" s="2"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="N471" s="8"/>
+      <c r="N471" s="2"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="N472" s="8"/>
+      <c r="N472" s="2"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="N473" s="8"/>
+      <c r="N473" s="2"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="N474" s="8"/>
+      <c r="N474" s="2"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="N475" s="8"/>
+      <c r="N475" s="2"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="N476" s="8"/>
+      <c r="N476" s="2"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="N477" s="8"/>
+      <c r="N477" s="2"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="N478" s="8"/>
+      <c r="N478" s="2"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="N479" s="8"/>
+      <c r="N479" s="2"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="N480" s="8"/>
+      <c r="N480" s="2"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="N481" s="8"/>
+      <c r="N481" s="2"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="N482" s="8"/>
+      <c r="N482" s="2"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="N483" s="8"/>
+      <c r="N483" s="2"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="N484" s="8"/>
+      <c r="N484" s="2"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="N485" s="8"/>
+      <c r="N485" s="2"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="N486" s="8"/>
+      <c r="N486" s="2"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="N487" s="8"/>
+      <c r="N487" s="2"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="N488" s="8"/>
+      <c r="N488" s="2"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="N489" s="8"/>
+      <c r="N489" s="2"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="N490" s="8"/>
+      <c r="N490" s="2"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="N491" s="8"/>
+      <c r="N491" s="2"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="N492" s="8"/>
+      <c r="N492" s="2"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="N493" s="8"/>
+      <c r="N493" s="2"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="N494" s="8"/>
+      <c r="N494" s="2"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="N495" s="8"/>
+      <c r="N495" s="2"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="N496" s="8"/>
+      <c r="N496" s="2"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="N497" s="8"/>
+      <c r="N497" s="2"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="N498" s="8"/>
+      <c r="N498" s="2"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="N499" s="8"/>
+      <c r="N499" s="2"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="N500" s="8"/>
+      <c r="N500" s="2"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="N501" s="8"/>
+      <c r="N501" s="2"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="N502" s="8"/>
+      <c r="N502" s="2"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="N503" s="8"/>
+      <c r="N503" s="2"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="N504" s="8"/>
+      <c r="N504" s="2"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="N505" s="8"/>
+      <c r="N505" s="2"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="N506" s="8"/>
+      <c r="N506" s="2"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="N507" s="8"/>
+      <c r="N507" s="2"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="N508" s="8"/>
+      <c r="N508" s="2"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="N509" s="8"/>
+      <c r="N509" s="2"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="N510" s="8"/>
+      <c r="N510" s="2"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="N511" s="8"/>
+      <c r="N511" s="2"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="N512" s="8"/>
+      <c r="N512" s="2"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="N513" s="8"/>
+      <c r="N513" s="2"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="N514" s="8"/>
+      <c r="N514" s="2"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="N515" s="8"/>
+      <c r="N515" s="2"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="N516" s="8"/>
+      <c r="N516" s="2"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="N517" s="8"/>
+      <c r="N517" s="2"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="N518" s="8"/>
+      <c r="N518" s="2"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="N519" s="8"/>
+      <c r="N519" s="2"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="N520" s="8"/>
+      <c r="N520" s="2"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="N521" s="8"/>
+      <c r="N521" s="2"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="N522" s="8"/>
+      <c r="N522" s="2"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="N523" s="8"/>
+      <c r="N523" s="2"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="N524" s="8"/>
+      <c r="N524" s="2"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="N525" s="8"/>
+      <c r="N525" s="2"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="N526" s="8"/>
+      <c r="N526" s="2"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="N527" s="8"/>
+      <c r="N527" s="2"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="N528" s="8"/>
+      <c r="N528" s="2"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="N529" s="8"/>
+      <c r="N529" s="2"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="N530" s="8"/>
+      <c r="N530" s="2"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="N531" s="8"/>
+      <c r="N531" s="2"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="N532" s="8"/>
+      <c r="N532" s="2"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="N533" s="8"/>
+      <c r="N533" s="2"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="N534" s="8"/>
+      <c r="N534" s="2"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="N535" s="8"/>
+      <c r="N535" s="2"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="N536" s="8"/>
+      <c r="N536" s="2"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="N537" s="8"/>
+      <c r="N537" s="2"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="N538" s="8"/>
+      <c r="N538" s="2"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="N539" s="8"/>
+      <c r="N539" s="2"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="N540" s="8"/>
+      <c r="N540" s="2"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="N541" s="8"/>
+      <c r="N541" s="2"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="N542" s="8"/>
+      <c r="N542" s="2"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="N543" s="8"/>
+      <c r="N543" s="2"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="N544" s="8"/>
+      <c r="N544" s="2"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="N545" s="8"/>
+      <c r="N545" s="2"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="N546" s="8"/>
+      <c r="N546" s="2"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="N547" s="8"/>
+      <c r="N547" s="2"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="N548" s="8"/>
+      <c r="N548" s="2"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="N549" s="8"/>
+      <c r="N549" s="2"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="N550" s="8"/>
+      <c r="N550" s="2"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="N551" s="8"/>
+      <c r="N551" s="2"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="N552" s="8"/>
+      <c r="N552" s="2"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="N553" s="8"/>
+      <c r="N553" s="2"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="N554" s="8"/>
+      <c r="N554" s="2"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="N555" s="8"/>
+      <c r="N555" s="2"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="N556" s="8"/>
+      <c r="N556" s="2"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="N557" s="8"/>
+      <c r="N557" s="2"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="N558" s="8"/>
+      <c r="N558" s="2"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="N559" s="8"/>
+      <c r="N559" s="2"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="N560" s="8"/>
+      <c r="N560" s="2"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="N561" s="8"/>
+      <c r="N561" s="2"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="N562" s="8"/>
+      <c r="N562" s="2"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="N563" s="8"/>
+      <c r="N563" s="2"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="N564" s="8"/>
+      <c r="N564" s="2"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="N565" s="8"/>
+      <c r="N565" s="2"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="N566" s="8"/>
+      <c r="N566" s="2"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="N567" s="8"/>
+      <c r="N567" s="2"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="N568" s="8"/>
+      <c r="N568" s="2"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="N569" s="8"/>
+      <c r="N569" s="2"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="N570" s="8"/>
+      <c r="N570" s="2"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="N571" s="8"/>
+      <c r="N571" s="2"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="N572" s="8"/>
+      <c r="N572" s="2"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="N573" s="8"/>
+      <c r="N573" s="2"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="N574" s="8"/>
+      <c r="N574" s="2"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="N575" s="8"/>
+      <c r="N575" s="2"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="N576" s="8"/>
+      <c r="N576" s="2"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="N577" s="8"/>
+      <c r="N577" s="2"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="N578" s="8"/>
+      <c r="N578" s="2"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="N579" s="8"/>
+      <c r="N579" s="2"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="N580" s="8"/>
+      <c r="N580" s="2"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="N581" s="8"/>
+      <c r="N581" s="2"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="N582" s="8"/>
+      <c r="N582" s="2"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="N583" s="8"/>
+      <c r="N583" s="2"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="N584" s="8"/>
+      <c r="N584" s="2"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="N585" s="8"/>
+      <c r="N585" s="2"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="N586" s="8"/>
+      <c r="N586" s="2"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="N587" s="8"/>
+      <c r="N587" s="2"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="N588" s="8"/>
+      <c r="N588" s="2"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="N589" s="8"/>
+      <c r="N589" s="2"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="N590" s="8"/>
+      <c r="N590" s="2"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="N591" s="8"/>
+      <c r="N591" s="2"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="N592" s="8"/>
+      <c r="N592" s="2"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="N593" s="8"/>
+      <c r="N593" s="2"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="N594" s="8"/>
+      <c r="N594" s="2"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="N595" s="8"/>
+      <c r="N595" s="2"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="N596" s="8"/>
+      <c r="N596" s="2"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="N597" s="8"/>
+      <c r="N597" s="2"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="N598" s="8"/>
+      <c r="N598" s="2"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="N599" s="8"/>
+      <c r="N599" s="2"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="N600" s="8"/>
+      <c r="N600" s="2"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="N601" s="8"/>
+      <c r="N601" s="2"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="N602" s="8"/>
+      <c r="N602" s="2"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="N603" s="8"/>
+      <c r="N603" s="2"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="N604" s="8"/>
+      <c r="N604" s="2"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="N605" s="8"/>
+      <c r="N605" s="2"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="N606" s="8"/>
+      <c r="N606" s="2"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="N607" s="8"/>
+      <c r="N607" s="2"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="N608" s="8"/>
+      <c r="N608" s="2"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="N609" s="8"/>
+      <c r="N609" s="2"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="N610" s="8"/>
+      <c r="N610" s="2"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="N611" s="8"/>
+      <c r="N611" s="2"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="N612" s="8"/>
+      <c r="N612" s="2"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="N613" s="8"/>
+      <c r="N613" s="2"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="N614" s="8"/>
+      <c r="N614" s="2"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="N615" s="8"/>
+      <c r="N615" s="2"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="N616" s="8"/>
+      <c r="N616" s="2"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="N617" s="8"/>
+      <c r="N617" s="2"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="N618" s="8"/>
+      <c r="N618" s="2"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="N619" s="8"/>
+      <c r="N619" s="2"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="N620" s="8"/>
+      <c r="N620" s="2"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="N621" s="8"/>
+      <c r="N621" s="2"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="N622" s="8"/>
+      <c r="N622" s="2"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="N623" s="8"/>
+      <c r="N623" s="2"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="N624" s="8"/>
+      <c r="N624" s="2"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="N625" s="8"/>
+      <c r="N625" s="2"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="N626" s="8"/>
+      <c r="N626" s="2"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="N627" s="8"/>
+      <c r="N627" s="2"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="N628" s="8"/>
+      <c r="N628" s="2"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="N629" s="8"/>
+      <c r="N629" s="2"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="N630" s="8"/>
+      <c r="N630" s="2"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="N631" s="8"/>
+      <c r="N631" s="2"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="N632" s="8"/>
+      <c r="N632" s="2"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="N633" s="8"/>
+      <c r="N633" s="2"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="N634" s="8"/>
+      <c r="N634" s="2"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="N635" s="8"/>
+      <c r="N635" s="2"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="N636" s="8"/>
+      <c r="N636" s="2"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="N637" s="8"/>
+      <c r="N637" s="2"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="N638" s="8"/>
+      <c r="N638" s="2"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="N639" s="8"/>
+      <c r="N639" s="2"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="N640" s="8"/>
+      <c r="N640" s="2"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="N641" s="8"/>
+      <c r="N641" s="2"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="N642" s="8"/>
+      <c r="N642" s="2"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="N643" s="8"/>
+      <c r="N643" s="2"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="N644" s="8"/>
+      <c r="N644" s="2"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="N645" s="8"/>
+      <c r="N645" s="2"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="N646" s="8"/>
+      <c r="N646" s="2"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="N647" s="8"/>
+      <c r="N647" s="2"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="N648" s="8"/>
+      <c r="N648" s="2"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="N649" s="8"/>
+      <c r="N649" s="2"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="N650" s="8"/>
+      <c r="N650" s="2"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="N651" s="8"/>
+      <c r="N651" s="2"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="N652" s="8"/>
+      <c r="N652" s="2"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="N653" s="8"/>
+      <c r="N653" s="2"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="N654" s="8"/>
+      <c r="N654" s="2"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="N655" s="8"/>
+      <c r="N655" s="2"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="N656" s="8"/>
+      <c r="N656" s="2"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="N657" s="8"/>
+      <c r="N657" s="2"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="N658" s="8"/>
+      <c r="N658" s="2"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="N659" s="8"/>
+      <c r="N659" s="2"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="N660" s="8"/>
+      <c r="N660" s="2"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="N661" s="8"/>
+      <c r="N661" s="2"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="N662" s="8"/>
+      <c r="N662" s="2"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="N663" s="8"/>
+      <c r="N663" s="2"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="N664" s="8"/>
+      <c r="N664" s="2"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="N665" s="8"/>
+      <c r="N665" s="2"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="N666" s="8"/>
+      <c r="N666" s="2"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="N667" s="8"/>
+      <c r="N667" s="2"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="N668" s="8"/>
+      <c r="N668" s="2"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="N669" s="8"/>
+      <c r="N669" s="2"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="N670" s="8"/>
+      <c r="N670" s="2"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="N671" s="8"/>
+      <c r="N671" s="2"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="N672" s="8"/>
+      <c r="N672" s="2"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="N673" s="8"/>
+      <c r="N673" s="2"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="N674" s="8"/>
+      <c r="N674" s="2"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="N675" s="8"/>
+      <c r="N675" s="2"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="N676" s="8"/>
+      <c r="N676" s="2"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="N677" s="8"/>
+      <c r="N677" s="2"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="N678" s="8"/>
+      <c r="N678" s="2"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="N679" s="8"/>
+      <c r="N679" s="2"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="N680" s="8"/>
+      <c r="N680" s="2"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="N681" s="8"/>
+      <c r="N681" s="2"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="N682" s="8"/>
+      <c r="N682" s="2"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="N683" s="8"/>
+      <c r="N683" s="2"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="N684" s="8"/>
+      <c r="N684" s="2"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="N685" s="8"/>
+      <c r="N685" s="2"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="N686" s="8"/>
+      <c r="N686" s="2"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="N687" s="8"/>
+      <c r="N687" s="2"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="N688" s="8"/>
+      <c r="N688" s="2"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="N689" s="8"/>
+      <c r="N689" s="2"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="N690" s="8"/>
+      <c r="N690" s="2"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="N691" s="8"/>
+      <c r="N691" s="2"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="N692" s="8"/>
+      <c r="N692" s="2"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="N693" s="8"/>
+      <c r="N693" s="2"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="N694" s="8"/>
+      <c r="N694" s="2"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="N695" s="8"/>
+      <c r="N695" s="2"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="N696" s="8"/>
+      <c r="N696" s="2"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="N697" s="8"/>
+      <c r="N697" s="2"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="N698" s="8"/>
+      <c r="N698" s="2"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="N699" s="8"/>
+      <c r="N699" s="2"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="N700" s="8"/>
+      <c r="N700" s="2"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="N701" s="8"/>
+      <c r="N701" s="2"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="N702" s="8"/>
+      <c r="N702" s="2"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="N703" s="8"/>
+      <c r="N703" s="2"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="N704" s="8"/>
+      <c r="N704" s="2"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="N705" s="8"/>
+      <c r="N705" s="2"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="N706" s="8"/>
+      <c r="N706" s="2"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="N707" s="8"/>
+      <c r="N707" s="2"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="N708" s="8"/>
+      <c r="N708" s="2"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="N709" s="8"/>
+      <c r="N709" s="2"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="N710" s="8"/>
+      <c r="N710" s="2"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="N711" s="8"/>
+      <c r="N711" s="2"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="N712" s="8"/>
+      <c r="N712" s="2"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="N713" s="8"/>
+      <c r="N713" s="2"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="N714" s="8"/>
+      <c r="N714" s="2"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="N715" s="8"/>
+      <c r="N715" s="2"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="N716" s="8"/>
+      <c r="N716" s="2"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="N717" s="8"/>
+      <c r="N717" s="2"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="N718" s="8"/>
+      <c r="N718" s="2"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="N719" s="8"/>
+      <c r="N719" s="2"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="N720" s="8"/>
+      <c r="N720" s="2"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="N721" s="8"/>
+      <c r="N721" s="2"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="N722" s="8"/>
+      <c r="N722" s="2"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="N723" s="8"/>
+      <c r="N723" s="2"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="N724" s="8"/>
+      <c r="N724" s="2"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="N725" s="8"/>
+      <c r="N725" s="2"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="N726" s="8"/>
+      <c r="N726" s="2"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="N727" s="8"/>
+      <c r="N727" s="2"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="N728" s="8"/>
+      <c r="N728" s="2"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="N729" s="8"/>
+      <c r="N729" s="2"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="N730" s="8"/>
+      <c r="N730" s="2"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="N731" s="8"/>
+      <c r="N731" s="2"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="N732" s="8"/>
+      <c r="N732" s="2"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="N733" s="8"/>
+      <c r="N733" s="2"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="N734" s="8"/>
+      <c r="N734" s="2"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="N735" s="8"/>
+      <c r="N735" s="2"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="N736" s="8"/>
+      <c r="N736" s="2"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="N737" s="8"/>
+      <c r="N737" s="2"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="N738" s="8"/>
+      <c r="N738" s="2"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="N739" s="8"/>
+      <c r="N739" s="2"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="N740" s="8"/>
+      <c r="N740" s="2"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="N741" s="8"/>
+      <c r="N741" s="2"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="N742" s="8"/>
+      <c r="N742" s="2"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="N743" s="8"/>
+      <c r="N743" s="2"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="N744" s="8"/>
+      <c r="N744" s="2"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="N745" s="8"/>
+      <c r="N745" s="2"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="N746" s="8"/>
+      <c r="N746" s="2"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="N747" s="8"/>
+      <c r="N747" s="2"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="N748" s="8"/>
+      <c r="N748" s="2"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="N749" s="8"/>
+      <c r="N749" s="2"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="N750" s="8"/>
+      <c r="N750" s="2"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="N751" s="8"/>
+      <c r="N751" s="2"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="N752" s="8"/>
+      <c r="N752" s="2"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="N753" s="8"/>
+      <c r="N753" s="2"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="N754" s="8"/>
+      <c r="N754" s="2"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="N755" s="8"/>
+      <c r="N755" s="2"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="N756" s="8"/>
+      <c r="N756" s="2"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="N757" s="8"/>
+      <c r="N757" s="2"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="N758" s="8"/>
+      <c r="N758" s="2"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="N759" s="8"/>
+      <c r="N759" s="2"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="N760" s="8"/>
+      <c r="N760" s="2"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="N761" s="8"/>
+      <c r="N761" s="2"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="N762" s="8"/>
+      <c r="N762" s="2"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="N763" s="8"/>
+      <c r="N763" s="2"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="N764" s="8"/>
+      <c r="N764" s="2"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="N765" s="8"/>
+      <c r="N765" s="2"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="N766" s="8"/>
+      <c r="N766" s="2"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="N767" s="8"/>
+      <c r="N767" s="2"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="N768" s="8"/>
+      <c r="N768" s="2"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="N769" s="8"/>
+      <c r="N769" s="2"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="N770" s="8"/>
+      <c r="N770" s="2"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="N771" s="8"/>
+      <c r="N771" s="2"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="N772" s="8"/>
+      <c r="N772" s="2"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="N773" s="8"/>
+      <c r="N773" s="2"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="N774" s="8"/>
+      <c r="N774" s="2"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="N775" s="8"/>
+      <c r="N775" s="2"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="N776" s="8"/>
+      <c r="N776" s="2"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="N777" s="8"/>
+      <c r="N777" s="2"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="N778" s="8"/>
+      <c r="N778" s="2"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="N779" s="8"/>
+      <c r="N779" s="2"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="N780" s="8"/>
+      <c r="N780" s="2"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="N781" s="8"/>
+      <c r="N781" s="2"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="N782" s="8"/>
+      <c r="N782" s="2"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="N783" s="8"/>
+      <c r="N783" s="2"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="N784" s="8"/>
+      <c r="N784" s="2"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="N785" s="8"/>
+      <c r="N785" s="2"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="N786" s="8"/>
+      <c r="N786" s="2"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="N787" s="8"/>
+      <c r="N787" s="2"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="N788" s="8"/>
+      <c r="N788" s="2"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="N789" s="8"/>
+      <c r="N789" s="2"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="N790" s="8"/>
+      <c r="N790" s="2"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="N791" s="8"/>
+      <c r="N791" s="2"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="N792" s="8"/>
+      <c r="N792" s="2"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="N793" s="8"/>
+      <c r="N793" s="2"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="N794" s="8"/>
+      <c r="N794" s="2"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="N795" s="8"/>
+      <c r="N795" s="2"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="N796" s="8"/>
+      <c r="N796" s="2"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="N797" s="8"/>
+      <c r="N797" s="2"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="N798" s="8"/>
+      <c r="N798" s="2"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="N799" s="8"/>
+      <c r="N799" s="2"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="N800" s="8"/>
+      <c r="N800" s="2"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="N801" s="8"/>
+      <c r="N801" s="2"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="N802" s="8"/>
+      <c r="N802" s="2"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="N803" s="8"/>
+      <c r="N803" s="2"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="N804" s="8"/>
+      <c r="N804" s="2"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="N805" s="8"/>
+      <c r="N805" s="2"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="N806" s="8"/>
+      <c r="N806" s="2"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="N807" s="8"/>
+      <c r="N807" s="2"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="N808" s="8"/>
+      <c r="N808" s="2"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="N809" s="8"/>
+      <c r="N809" s="2"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="N810" s="8"/>
+      <c r="N810" s="2"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="N811" s="8"/>
+      <c r="N811" s="2"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="N812" s="8"/>
+      <c r="N812" s="2"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="N813" s="8"/>
+      <c r="N813" s="2"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="N814" s="8"/>
+      <c r="N814" s="2"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="N815" s="8"/>
+      <c r="N815" s="2"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="N816" s="8"/>
+      <c r="N816" s="2"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="N817" s="8"/>
+      <c r="N817" s="2"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="N818" s="8"/>
+      <c r="N818" s="2"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="N819" s="8"/>
+      <c r="N819" s="2"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="N820" s="8"/>
+      <c r="N820" s="2"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="N821" s="8"/>
+      <c r="N821" s="2"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="N822" s="8"/>
+      <c r="N822" s="2"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="N823" s="8"/>
+      <c r="N823" s="2"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="N824" s="8"/>
+      <c r="N824" s="2"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="N825" s="8"/>
+      <c r="N825" s="2"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="N826" s="8"/>
+      <c r="N826" s="2"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="N827" s="8"/>
+      <c r="N827" s="2"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="N828" s="8"/>
+      <c r="N828" s="2"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="N829" s="8"/>
+      <c r="N829" s="2"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="N830" s="8"/>
+      <c r="N830" s="2"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="N831" s="8"/>
+      <c r="N831" s="2"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="N832" s="8"/>
+      <c r="N832" s="2"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="N833" s="8"/>
+      <c r="N833" s="2"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="N834" s="8"/>
+      <c r="N834" s="2"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="N835" s="8"/>
+      <c r="N835" s="2"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="N836" s="8"/>
+      <c r="N836" s="2"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="N837" s="8"/>
+      <c r="N837" s="2"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="N838" s="8"/>
+      <c r="N838" s="2"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="N839" s="8"/>
+      <c r="N839" s="2"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="N840" s="8"/>
+      <c r="N840" s="2"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="N841" s="8"/>
+      <c r="N841" s="2"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="N842" s="8"/>
+      <c r="N842" s="2"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="N843" s="8"/>
+      <c r="N843" s="2"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="N844" s="8"/>
+      <c r="N844" s="2"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="N845" s="8"/>
+      <c r="N845" s="2"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="N846" s="8"/>
+      <c r="N846" s="2"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="N847" s="8"/>
+      <c r="N847" s="2"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="N848" s="8"/>
+      <c r="N848" s="2"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="N849" s="8"/>
+      <c r="N849" s="2"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="N850" s="8"/>
+      <c r="N850" s="2"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="N851" s="8"/>
+      <c r="N851" s="2"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="N852" s="8"/>
+      <c r="N852" s="2"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="N853" s="8"/>
+      <c r="N853" s="2"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="N854" s="8"/>
+      <c r="N854" s="2"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="N855" s="8"/>
+      <c r="N855" s="2"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="N856" s="8"/>
+      <c r="N856" s="2"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="N857" s="8"/>
+      <c r="N857" s="2"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="N858" s="8"/>
+      <c r="N858" s="2"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="N859" s="8"/>
+      <c r="N859" s="2"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="N860" s="8"/>
+      <c r="N860" s="2"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="N861" s="8"/>
+      <c r="N861" s="2"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="N862" s="8"/>
+      <c r="N862" s="2"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="N863" s="8"/>
+      <c r="N863" s="2"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="N864" s="8"/>
+      <c r="N864" s="2"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="N865" s="8"/>
+      <c r="N865" s="2"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="N866" s="8"/>
+      <c r="N866" s="2"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="N867" s="8"/>
+      <c r="N867" s="2"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="N868" s="8"/>
+      <c r="N868" s="2"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="N869" s="8"/>
+      <c r="N869" s="2"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="N870" s="8"/>
+      <c r="N870" s="2"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="N871" s="8"/>
+      <c r="N871" s="2"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="N872" s="8"/>
+      <c r="N872" s="2"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="N873" s="8"/>
+      <c r="N873" s="2"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="N874" s="8"/>
+      <c r="N874" s="2"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="N875" s="8"/>
+      <c r="N875" s="2"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="N876" s="8"/>
+      <c r="N876" s="2"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="N877" s="8"/>
+      <c r="N877" s="2"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="N878" s="8"/>
+      <c r="N878" s="2"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="N879" s="8"/>
+      <c r="N879" s="2"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="N880" s="8"/>
+      <c r="N880" s="2"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="N881" s="8"/>
+      <c r="N881" s="2"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="N882" s="8"/>
+      <c r="N882" s="2"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="N883" s="8"/>
+      <c r="N883" s="2"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="N884" s="8"/>
+      <c r="N884" s="2"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="N885" s="8"/>
+      <c r="N885" s="2"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="N886" s="8"/>
+      <c r="N886" s="2"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="N887" s="8"/>
+      <c r="N887" s="2"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="N888" s="8"/>
+      <c r="N888" s="2"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="N889" s="8"/>
+      <c r="N889" s="2"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="N890" s="8"/>
+      <c r="N890" s="2"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="N891" s="8"/>
+      <c r="N891" s="2"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="N892" s="8"/>
+      <c r="N892" s="2"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="N893" s="8"/>
+      <c r="N893" s="2"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="N894" s="8"/>
+      <c r="N894" s="2"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="N895" s="8"/>
+      <c r="N895" s="2"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="N896" s="8"/>
+      <c r="N896" s="2"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="N897" s="8"/>
+      <c r="N897" s="2"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="N898" s="8"/>
+      <c r="N898" s="2"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="N899" s="8"/>
+      <c r="N899" s="2"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="N900" s="8"/>
+      <c r="N900" s="2"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="N901" s="8"/>
+      <c r="N901" s="2"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="N902" s="8"/>
+      <c r="N902" s="2"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="N903" s="8"/>
+      <c r="N903" s="2"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="N904" s="8"/>
+      <c r="N904" s="2"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="N905" s="8"/>
+      <c r="N905" s="2"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="N906" s="8"/>
+      <c r="N906" s="2"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="N907" s="8"/>
+      <c r="N907" s="2"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="N908" s="8"/>
+      <c r="N908" s="2"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="N909" s="8"/>
+      <c r="N909" s="2"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="N910" s="8"/>
+      <c r="N910" s="2"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="N911" s="8"/>
+      <c r="N911" s="2"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="N912" s="8"/>
+      <c r="N912" s="2"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="N913" s="8"/>
+      <c r="N913" s="2"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="N914" s="8"/>
+      <c r="N914" s="2"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="N915" s="8"/>
+      <c r="N915" s="2"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="N916" s="8"/>
+      <c r="N916" s="2"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="N917" s="8"/>
+      <c r="N917" s="2"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="N918" s="8"/>
+      <c r="N918" s="2"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="N919" s="8"/>
+      <c r="N919" s="2"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="N920" s="8"/>
+      <c r="N920" s="2"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="N921" s="8"/>
+      <c r="N921" s="2"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="N922" s="8"/>
+      <c r="N922" s="2"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="N923" s="8"/>
+      <c r="N923" s="2"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="N924" s="8"/>
+      <c r="N924" s="2"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="N925" s="8"/>
+      <c r="N925" s="2"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="N926" s="8"/>
+      <c r="N926" s="2"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="N927" s="8"/>
+      <c r="N927" s="2"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="N928" s="8"/>
+      <c r="N928" s="2"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="N929" s="8"/>
+      <c r="N929" s="2"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="N930" s="8"/>
+      <c r="N930" s="2"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="N931" s="8"/>
+      <c r="N931" s="2"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="N932" s="8"/>
+      <c r="N932" s="2"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="N933" s="8"/>
+      <c r="N933" s="2"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="N934" s="8"/>
+      <c r="N934" s="2"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="N935" s="8"/>
+      <c r="N935" s="2"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="N936" s="8"/>
+      <c r="N936" s="2"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="N937" s="8"/>
+      <c r="N937" s="2"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="N938" s="8"/>
+      <c r="N938" s="2"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="N939" s="8"/>
+      <c r="N939" s="2"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="N940" s="8"/>
+      <c r="N940" s="2"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="N941" s="8"/>
+      <c r="N941" s="2"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="N942" s="8"/>
+      <c r="N942" s="2"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="N943" s="8"/>
+      <c r="N943" s="2"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="N944" s="8"/>
+      <c r="N944" s="2"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="N945" s="8"/>
+      <c r="N945" s="2"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="N946" s="8"/>
+      <c r="N946" s="2"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="N947" s="8"/>
+      <c r="N947" s="2"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="N948" s="8"/>
+      <c r="N948" s="2"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="N949" s="8"/>
+      <c r="N949" s="2"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="N950" s="8"/>
+      <c r="N950" s="2"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="N951" s="8"/>
+      <c r="N951" s="2"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="N952" s="8"/>
+      <c r="N952" s="2"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="N953" s="8"/>
+      <c r="N953" s="2"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="N954" s="8"/>
+      <c r="N954" s="2"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="N955" s="8"/>
+      <c r="N955" s="2"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="N956" s="8"/>
+      <c r="N956" s="2"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="N957" s="8"/>
+      <c r="N957" s="2"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="N958" s="8"/>
+      <c r="N958" s="2"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="N959" s="8"/>
+      <c r="N959" s="2"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="N960" s="8"/>
+      <c r="N960" s="2"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="N961" s="8"/>
+      <c r="N961" s="2"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="N962" s="8"/>
+      <c r="N962" s="2"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="N963" s="8"/>
+      <c r="N963" s="2"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="N964" s="8"/>
+      <c r="N964" s="2"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="N965" s="8"/>
+      <c r="N965" s="2"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="N966" s="8"/>
+      <c r="N966" s="2"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="N967" s="8"/>
+      <c r="N967" s="2"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="N968" s="8"/>
+      <c r="N968" s="2"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="N969" s="8"/>
+      <c r="N969" s="2"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="N970" s="8"/>
+      <c r="N970" s="2"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="N971" s="8"/>
+      <c r="N971" s="2"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="N972" s="8"/>
+      <c r="N972" s="2"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="N973" s="8"/>
+      <c r="N973" s="2"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="N974" s="8"/>
+      <c r="N974" s="2"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="N975" s="8"/>
+      <c r="N975" s="2"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="N976" s="8"/>
+      <c r="N976" s="2"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="N977" s="8"/>
+      <c r="N977" s="2"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="N978" s="8"/>
+      <c r="N978" s="2"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="N979" s="8"/>
+      <c r="N979" s="2"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="N980" s="8"/>
+      <c r="N980" s="2"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="N981" s="8"/>
+      <c r="N981" s="2"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="N982" s="8"/>
+      <c r="N982" s="2"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="N983" s="8"/>
+      <c r="N983" s="2"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="N984" s="8"/>
+      <c r="N984" s="2"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="N985" s="8"/>
+      <c r="N985" s="2"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="N986" s="8"/>
+      <c r="N986" s="2"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="N987" s="8"/>
+      <c r="N987" s="2"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="N988" s="8"/>
+      <c r="N988" s="2"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="N989" s="8"/>
+      <c r="N989" s="2"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="N990" s="8"/>
+      <c r="N990" s="2"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="N991" s="8"/>
+      <c r="N991" s="2"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="N992" s="8"/>
+      <c r="N992" s="2"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="N993" s="8"/>
+      <c r="N993" s="2"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="N994" s="8"/>
+      <c r="N994" s="2"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="N995" s="8"/>
+      <c r="N995" s="2"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="N996" s="8"/>
+      <c r="N996" s="2"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="N997" s="8"/>
+      <c r="N997" s="2"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="N998" s="8"/>
+      <c r="N998" s="2"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="N999" s="8"/>
+      <c r="N999" s="2"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="N1000" s="8"/>
+      <c r="N1000" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
